--- a/database_recipe.xlsx
+++ b/database_recipe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18540"/>
+    <workbookView windowWidth="26760" windowHeight="16245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1321,7 +1321,7 @@
     <t>Diced Beef with Garlic and Mushrooms</t>
   </si>
   <si>
-    <t>Beef,200;mushroom,200;garlic,100;butter;50;black pepper,50</t>
+    <t>Beef,200;mushroom,200;garlic,100;butter,50;black pepper,50</t>
   </si>
   <si>
     <t>1.Cut the beef into small pieces and marinate for 30 minutes with a good amount of black pepper,Slice the mushrooms and set aside,slice the garlic thickly and set aside;2.Heat a pan,add a little butter and fry the beef;3.Heat the oil in a separate pan,add the garlic and stir fry the mushrooms,then stir fry the beef;4.Add the right amount of black pepper,stir-fry evenly and serve</t>
@@ -1890,7 +1890,7 @@
     <t>Braised Duck</t>
   </si>
   <si>
-    <t>Duck,500;wine,20;ginger,10;onion,10 oyster sauce,5;soy sauce,10;garlic,10</t>
+    <t>Duck,500;wine,20;ginger,10;onion,10;oyster sauce,5;soy sauce,10;garlic,10</t>
   </si>
   <si>
     <t>1.Heat the oil in a cold pan over high heat,pour in the ginger and garlic cloves after heating up the oil, burst into flames;2.Pour in the duck meat and turn evenly,when you see the meat shrink,add 2 tablespoons of cooking wine;3.Pour in the remaining chillies and spring onions,pour in 2 bowls of water and simmer over a medium heat for 15 minutes</t>
@@ -2395,7 +2395,7 @@
     <t>Golden Soup Tofu Soup</t>
   </si>
   <si>
-    <t>tofu,300;shiitake,20;carrot,20;salt,3;soy sauce,5;duck egg;50;flour,20;chive,10</t>
+    <t>tofu,300;shiitake,20;carrot,20;salt,3;soy sauce,5;duck egg,50;flour,20;chive,10</t>
   </si>
   <si>
     <t>1. Cut the tofu into small cloves, slice the mushrooms, slice the carrots into cubes; 2. Fry the salted egg yolk with little oil in the pot, add the carrots, mushrooms and ham to stir fry evenly; 3. Add salt and light soy sauce to taste, pour an appropriate amount of hot water into the tofu Cover the block and turn to high heat to boil; 4. Pour in the water starch and finally sprinkle a handful of chopped green onion out of the pot</t>
@@ -2419,7 +2419,7 @@
     <t>Minced Pork Tofu</t>
   </si>
   <si>
-    <t>Tofu,350;Pork,200;Garlic,20 Onion,20;Pepper,5;Cooking wine,5;Soy sauce,15;Salt,3;Flour,15;Water,200</t>
+    <t>Tofu,350;Pork,200;Garlic,20;Onion,20;Pepper,5;Cooking wine,5;Soy sauce,15;Salt,3;Flour,15;Water,200</t>
   </si>
   <si>
     <t>1. First marinate the minced meat for a while: a little pepper and a spoonful of cooking wine and light soy sauce and mix well; 2. In making the sauce: a spoonful of light soy sauce, dark soy sauce and starch, a little salt, a little water, and half a bowl; 3. Heat Pour oil into the pot, add minced meat and cook until discolored, add garlic and shallots to sauté until fragrant, then pour in tofu and sauce; 4. Simmer on low heat for five minutes</t>
@@ -4808,7 +4808,7 @@
     <t>Cumin Potato</t>
   </si>
   <si>
-    <t>Potatoe,150;Cumin,10;Pepper,5;Sesame,5;Scallion,15;Salt,5;Sugar.5</t>
+    <t>Potatoe,150;Cumin,10;Pepper,5;Sesame,5;Scallion,15;Salt,5;Sugar,5</t>
   </si>
   <si>
     <t>1. Slice the potatoes Soak the potatoes in water.;2. Blanch with salt in boiling water for two minutes.;3. Fry the potatoes until they are golden and remove them.;4. Stir fry chili noodles, cumin noodles, sugar and salt until fragrant.;5. Add potato chips, white sesame seeds and scallions.</t>
@@ -6001,8 +6001,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/database_recipe.xlsx
+++ b/database_recipe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26760" windowHeight="16245"/>
+    <workbookView windowWidth="24270" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1054">
   <si>
     <t>编号</t>
   </si>
@@ -328,7 +328,7 @@
     <t>coliflor,300;Soy sauce,3;Oyster sauce,3;Garlic,5;sugar,5;Scallion,3;Chili,3</t>
   </si>
   <si>
-    <t>1.Cut the organic cauliflower and blanch it in boiling water for 3 minutes;2.Fry Scallion, ginger and garlic until fragrant;3.Add the cauliflower to the wok and stir fry. Add a little seafood soy sauce and a little oyster sauce</t>
+    <t>1.Cut the organic cauliflower and blanch it in boiling water for 3 minutes;2.Fry Scallion, ginger and garlic until fragrant;3.Add the cauliflower to the wok and stir fry. Add a little Seafood soy sauce and a little oyster sauce</t>
   </si>
   <si>
     <r>
@@ -1279,7 +1279,7 @@
     <t>1.beef cold water into the pot,put onion,ginger,cooking wine,boil over high heat and skim off the foam,turn the medium heat and then cook 1-2 two minutes, fish out;2.potatoes peeled and cut into cubes,wash with water, control the water pot put oil, oil is hot, put the potatoes,add a little salt, fry over medium-low heat until the surface is golden, fish out and set aside;3.chopsticks can easily pierce the beef on it, fish out the onion and ginger ingredients, put the fried potatoes cubes Add the potatoes, season with a pinch of salt and simmer over medium-low heat for 10 minutes</t>
   </si>
   <si>
-    <t>lunch;hot dishes;meat dishes</t>
+    <t>Lunch;Hot dishes;Meat dishes</t>
   </si>
   <si>
     <r>
@@ -1327,7 +1327,7 @@
     <t>1.Cut the beef into small pieces and marinate for 30 minutes with a good amount of black pepper,Slice the mushrooms and set aside,slice the garlic thickly and set aside;2.Heat a pan,add a little butter and fry the beef;3.Heat the oil in a separate pan,add the garlic and stir fry the mushrooms,then stir fry the beef;4.Add the right amount of black pepper,stir-fry evenly and serve</t>
   </si>
   <si>
-    <t>dinner;hot dishes;meat dishes</t>
+    <t>Dinner;Hot dishes;Meat dishes</t>
   </si>
   <si>
     <r>
@@ -2130,7 +2130,7 @@
     <t>1.Blanch the mushrooms for 1 minute,remove from the oven and squeeze out the water;2.Add ginger,garlic and dried chillies,stir-fry the mushrooms;3.Add salt, soy sauce,cooking oil and chicken seasoning</t>
   </si>
   <si>
-    <t>lunch;hot dishes;vegetable dishes</t>
+    <t>Lunch;Hot dishes;Vegetable dishes</t>
   </si>
   <si>
     <r>
@@ -2275,7 +2275,7 @@
     <t>1.Wash all the ingredients, except the red dates,and pour them into a bowl and soak in water for 2 hours;2.Pour the soaked ingredients into the rice cooker together with the dates and add 1850ml of water and select the cook porridge button</t>
   </si>
   <si>
-    <t>dinner</t>
+    <t>Dinner</t>
   </si>
   <si>
     <r>
@@ -2350,7 +2350,7 @@
     <t>Translated with www.DeepL.com/Translator (free version)</t>
   </si>
   <si>
-    <t>lunch;dinner;hot dishes</t>
+    <t>Lunch;Dinner;Hot dishes</t>
   </si>
   <si>
     <r>
@@ -2473,7 +2473,7 @@
     <t>1.Dry the surface of the fish with kitchen paper,and apply salt evenly;2.Marinate,or put it in the refrigerator to ensure freshness;3.Cut into pieces;4.Heat the fish in a non-stick pan over medium heat,and fry the fish first The side of the skin;5.Then turn to low heat,and each side can be roughly crispy and golden for four minutes;6.Squeeze lemon juice and sprinkle with a little black pepper</t>
   </si>
   <si>
-    <t>hot dishes;lunch;dinner;seafood</t>
+    <t>Hot dishes;Lunch;Dinner;Seafood</t>
   </si>
   <si>
     <r>
@@ -2549,7 +2549,7 @@
     <t>1.Chop all the ingredients and mix well;2.Add salmon and stir well</t>
   </si>
   <si>
-    <t>cold dishes;lunch;dinner;seafood</t>
+    <t>Cold dishes;Lunch;Dinner;Seafood</t>
   </si>
   <si>
     <r>
@@ -2576,7 +2576,7 @@
     <t>1.Wash the lettuce and drain the water for later use;2.Remove the fish from the tuna and control the water and oil;3.Remove the corn kernels and drain the water;4.Put the tuna,corn and lettuce into the basin;mayonnaise,mix well</t>
   </si>
   <si>
-    <t>cold dishes;breakfast;lunch;dinner;seafood</t>
+    <t>Cold dishes;Breakfast;Lunch;Dinner;Seafood</t>
   </si>
   <si>
     <r>
@@ -2891,7 +2891,7 @@
     <t>1.Peel the shredded radish,rub it into shredded radish;2.Boil the onion and ginger in the pan,add the shredded radish and stir-fry;3.After the water is boiled,add the oysters,add salt and chopped green onion after about 3 minutes,and take out</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;lunch;dinner;seafood</t>
+    <t>Hot dishes;Breakfast;Lunch;Dinner;Seafood</t>
   </si>
   <si>
     <r>
@@ -2918,7 +2918,7 @@
     <t>1.Wash the rice,put it in the rice cooker according to the ratio of rice and water for normal cooking,and let it stand for 30 minutes;2.Before starting to cook the rice,take a few oysters,add minced ginger,and marinate in dark soy sauce for a while;3.Pour the marinated oysters into the rice cooker together with the juice,press the cooking switch, wait for the rice to cook,sprinkle some sesame seeds</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;lunch;dinner;staple food</t>
+    <t>Hot dishes;Breakfast;Lunch;Dinner;Staple food</t>
   </si>
   <si>
     <r>
@@ -2945,7 +2945,7 @@
     <t>1.Adjust the sauce with 1 tablespoon of white vinegar,1 tablespoon of sugar,2 tablespoons of light soy sauce,half a tablespoon of dark soy sauce,half a tablespoon of salt,and three tablespoons of water;2.Fry the eggs to the level of candy;3.Add a little oil to the pot and add garlic Saute until fragrant,then add the sauce and heat until slightly bubbly,add the eggs and stir fry the sauce;4.Put the eggs on the plate and sprinkle with green onions</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;lunch</t>
+    <t>Hot dishes;Breakfast;Lunch</t>
   </si>
   <si>
     <r>
@@ -2972,7 +2972,7 @@
     <t>1.Add a little salt to the eggs,pour 1 or 1.5 times the amount of water,and stir evenly;2.Then use a small spoon to remove the foam and bubbles to protect with plastic wrap,and then poke a few holes;3.Water in the pot,open the pot and steam,steam for 11 or 2 minutes and take it out;4.Put some vinegar and sesame oil</t>
   </si>
   <si>
-    <t>hot dishes;breakfast</t>
+    <t>Hot dishes;Breakfast</t>
   </si>
   <si>
     <r>
@@ -3023,7 +3023,7 @@
     <t>1.First,beat two duck eggs into a bowl,put two spoons of cold water in a bowl,and add appropriate salt;2.When the pot is hot,add oil,and the duck eggs are ready when the oil is hot Put it in the pot;3.When the duck eggs are a little dry,add green peppers,stir fry for about 1 to 2 minutes,and then you can get out of the pot</t>
   </si>
   <si>
-    <t>hot dishes;lunch;dinner</t>
+    <t>Hot dishes;Lunch;Dinner</t>
   </si>
   <si>
     <r>
@@ -3050,7 +3050,7 @@
     <t>1.Peel and wash the preserved egg for later use;2.Mince the coriander,chili and garlic;3.Heat the rapeseed oil in a pot until smoking,pour it into a bowl with minced garlic and chili;4.Add light soy sauce,appropriate amount of salt,vinegar,and chili pepper 1 tablespoon of oil and sesame oil and mix well;5.Add coriander;6.Cut a preserved egg into 4 pieces and pour into the prepared sauce</t>
   </si>
   <si>
-    <t>cold dishes;lunch;dinner</t>
+    <t>Cold dishes;Lunch;Dinner</t>
   </si>
   <si>
     <r>
@@ -3149,7 +3149,7 @@
     <t>1.Add the eggs and sugar and stir until the sugar melts;2.Add milk and continue to stir;3.Strain the foam,if there is no sieve,you can use a spoon to scrape the foam;4.Wrap it in plastic wrap and stick a toothpick in the middle of the plastic wrap A hole,simmered in water for 15 minutes</t>
   </si>
   <si>
-    <t>baked food</t>
+    <t>Baked food</t>
   </si>
   <si>
     <r>
@@ -3176,7 +3176,7 @@
     <t>1.Clean the duck eggs and dry them in the sun;2.Now boil the sauce,and put the ingredients in order according to the recipe in the picture;3.Add water,salt,boil the water until the salt water melts;4.Put Cool;5.Pass the sun-dried duck eggs with a high degree of white wine,sterilize the duck eggs and add the boiled sauce,the sauce should cover the eggs inside;6.Seal the altar for about 25 days</t>
   </si>
   <si>
-    <t xml:space="preserve">meat dishes </t>
+    <t>Meat dishes</t>
   </si>
   <si>
     <r>
@@ -3251,9 +3251,6 @@
     <t>1.Wash the lemons with salt,dry them,cut them into thin slices,and take out the lemon seeds;2.Then put a layer of lemon and a layer of rock sugar in a glass jar,cover it and put it in the refrigerator to keep it fresh</t>
   </si>
   <si>
-    <t>beverages</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -3422,7 +3419,7 @@
     <t>1.Put milk,apples and eggs into a food processor and puree;2.Add flour and stir well;3.Heat the pan to a low heat,brush a thin layer of oil,scoop a small spoon of batter into the pan;4.Sprinkle a little black sesame seeds and fry until golden brown on both sides</t>
   </si>
   <si>
-    <t>baked food;breakfast</t>
+    <t>Baked food;Breakfast</t>
   </si>
   <si>
     <r>
@@ -3569,7 +3566,7 @@
     <t>1.Cut a third of the pineapple,make a cross and dig out the pulp,soak in salt water for ten minutes;2.Prepare shrimp,peas,corn,diced carrots,and onions;3.Fry two eggs,add ingredients and stir fry half-cooked,add salt,soy sauce;4.Put in the rice,fry the pineapple meat and put it back into the pineapple</t>
   </si>
   <si>
-    <t>staple food</t>
+    <t>Staple food</t>
   </si>
   <si>
     <r>
@@ -3767,7 +3764,7 @@
 </t>
   </si>
   <si>
-    <t>baked food;lunch;dinner;hot dishes</t>
+    <t>Baked food;Lunch;Dinner;Hot dishes</t>
   </si>
   <si>
     <r>
@@ -3794,7 +3791,7 @@
     <t>1. Dice the mango, wash and drain the blueberries, beat the whipped cream + sugar to 8, add yogurt and stir well.;2. Put plastic wrap in the mold, pour in the yogurt paste and smooth it out, place diced fruit and nuts, and freeze for one night.;3. Take it out and let it stand for a while, peel off the film and cut into pieces and eat.</t>
   </si>
   <si>
-    <t>cold dishes</t>
+    <t>Cold dishes</t>
   </si>
   <si>
     <r>
@@ -3823,7 +3820,7 @@
 </t>
   </si>
   <si>
-    <t>hot dishes;meat dishes;lunch;dinner</t>
+    <t>Hot dishes;Meat dishes;Lunch;Dinner</t>
   </si>
   <si>
     <r>
@@ -3850,7 +3847,7 @@
     <t>1. Egg separate yolk and egg white. Add milk and oil into egg yolk and stir well.;2. Sift in millet flour and rice flour. Batter stirred.;3. Beat egg white with sugar until stiff. Add the beaten protein into the batter and mix gently.;4. Pour it into the six inch flexible bottom mold. Wrap the bottom of the mold with tin foil and cover it with a suitable plate to prevent water vapor from entering.;5. Put boiling water into the steamer, steam over medium heat for 45 minutes, and bake for 5 minutes after turning off the heat.</t>
   </si>
   <si>
-    <t>baked food;staple food</t>
+    <t>Baked food;Staple food</t>
   </si>
   <si>
     <r>
@@ -3951,7 +3948,7 @@
     <t>1. Heat the pot and pour in edible oil. Pour in the stirred egg liquid and stir fry evenly.;2. Start another pot and pour oil. Pour in 10 grams of onions, carrots, sausage, green pepper and red pepper.;3. Add cooking wine and rice into the pot. Pour in the scrambled eggs, add salt, stir fry over high heat for one minute, and then take out of the pot.</t>
   </si>
   <si>
-    <t>staple food;dinner;lunch</t>
+    <t>Staple food;Dinner;Lunch</t>
   </si>
   <si>
     <r>
@@ -3980,7 +3977,7 @@
 </t>
   </si>
   <si>
-    <t>dinner;staple food</t>
+    <t>Dinner;Staple food</t>
   </si>
   <si>
     <r>
@@ -4029,7 +4026,7 @@
 </t>
   </si>
   <si>
-    <t>baked food;breakfast;hot dishes</t>
+    <t>Baked food;Breakfast;Hot dishes</t>
   </si>
   <si>
     <r>
@@ -4101,7 +4098,7 @@
     <t>1. First, peel and wash the ginger, cut it into thin slices, put it in a pot, and marinate with salt for 3 hours. During this period, turn it several times to make all the ginger slices evenly marinated.;2. Put the pickled ginger slices into a clean bottle and compact, there will be a small amount of water when compacted, pour the water out, put in the sugar, pour in the vinegar, and the vinegar can cover the ginger. It can be eaten after 2 to 3 days in the refrigerator.</t>
   </si>
   <si>
-    <t>cold dishes;vegetable dishes</t>
+    <t>Cold dishes;Vegetable dishes</t>
   </si>
   <si>
     <r>
@@ -4152,7 +4149,7 @@
     <t>1. Finely chop a whole shallot. Save a little green crumbs and throw them into the milk. Add small crumbles of green mustard cheese to the milk.;2. Add garlic powder, black pepper and sea salt according to personal taste. Chicken breast, millet peppers are cut into pieces/sections. Pour in the remaining chopped green onions, and all are ready together. Sprinkle with garlic powder, black pepper, and sea salt.;3. Blanch the washed spinach, remove and drain the water. Pour in the milk and make the green sauce.;4. Take the pot, stir-fry the chicken breast diced prepared in a small bowl; millet peppers; minced shallots; Then take it out and save it for later loading.;5. Pour the beaten green sauce directly into the pot, and cook the pasta in the pot on the other side. Drain the cooked pasta and pour it into the green sauce. Stir fry for a while and turn off the heat. Stir until the noodles are evenly coated with the green sauce.</t>
   </si>
   <si>
-    <t>hot dishes;meat dishes;lunch;dinner;staple food</t>
+    <t>Hot dishes;Meat dishes;Lunch;Dinner;Staple food</t>
   </si>
   <si>
     <r>
@@ -4179,7 +4176,7 @@
     <t>1. Wash spinach and blanch it in boiling water with a little salt until cooked. After it is too cold, rinse it with cold boiled water again.;2. Squeeze out the water slightly and put it into a big bowl.;3. Stir fry sesame seeds slowly over low heat.;4. Stir fry until golden, cool and set aside. Shake the spinach and add salt;5. Add sugar. Add sesame oil and mix well. Add sesame.</t>
   </si>
   <si>
-    <t>cold dishes;vegetable dishes;lunch;dinner</t>
+    <t>Cold dishes;Vegetable dishes;Lunch;Dinner</t>
   </si>
   <si>
     <r>
@@ -4230,7 +4227,7 @@
     <t>1. Cut the rice cake into pieces. Cut the carrots into thin slices.;2. Boil water in the pot, put the cut cauliflower inside and scald it, and take it out for standby.;3. Cut ginger, onion, pepper and garlic.Put oil into the hot pot, add carrots and fry slightly.;4. Add chopped ginger, onion, pepper and garlic, and fry until fragrant. Add tomato sauce and 2 grams of sugar.;5. Finally, pour in the rice cake and fry it. Add an appropriate amount of salt and monosodium glutamate and take it out of the pot.</t>
   </si>
   <si>
-    <t>hot dishes;vegetable dishes;lunch;dinner;staple food</t>
+    <t>Hot dishes;Vegetable dishes;Lunch;Dinner;Staple food</t>
   </si>
   <si>
     <r>
@@ -4330,7 +4327,7 @@
 Turn on the heat, then crack an egg in the middle of the cake and fry it slowly over medium-low heat. Fry the eggs until they are set, then turn over.;3. When both sides are cooked, take it out of the pan and put it on a plate.</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;staple food</t>
+    <t>Hot dishes;Breakfast;Staple food</t>
   </si>
   <si>
     <r>
@@ -4382,7 +4379,7 @@
     <t>1. Cut the shallots into pieces and put them in a bowl, add soy sauce, vinegar and sesame oil.;2. Boil the water, pour it into the sauce bowl, and the noodle soup is ready.;3. Cook the noodles in another pot, put the cooked noodles into the noodle soup.</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;dinner;staple food</t>
+    <t>Hot dishes;Breakfast;Dinner;Staple food</t>
   </si>
   <si>
     <r>
@@ -4409,7 +4406,7 @@
     <t>1. Cut the pumpkin into cubes. Add all the ingredients to the wall breaker, add 700 ml of water, and it will take about 30 minutes.;2. After the end, add an appropriate amount of yellow rock sugar, and it's done.</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;dinner;vegetable dishes</t>
+    <t>Hot dishes;Breakfast;Dinner;Vegetable dishes</t>
   </si>
   <si>
     <r>
@@ -4532,7 +4529,7 @@
     <t>1. Wash the oat rice and purple rice, add water, and steam them in a rice cooker.;2. Add sugar to the rice while it is still hot and place in a suitable container.;3. Add yogurt and refrigerate.</t>
   </si>
   <si>
-    <t>beverages;breakfast;cold dishes</t>
+    <t>Beverages;Breakfast;Cold dishes</t>
   </si>
   <si>
     <r>
@@ -4559,7 +4556,7 @@
     <t>1. Process the shrimp, cut off the shrimp legs, shrimp whiskers, remove the shrimp lines, add some cooking wine and marinate for a while.;2. Blanch the potatoes until half cooked and set aside. Wash the green peppers and coriander and cut them into pieces for later use.;3. Put butter in the pot, add onion and saute until fragrant, add shrimp and fry over high heat until discolored.;4. Add in curry, stir fry evenly, pour in whipped cream, a little salt, turn to medium-low heat.;5. Boil and add potatoes, turn to low heat and cook for 2 minutes, finally add green pepper, stir fry for 1 minute, until the soup thickens.</t>
   </si>
   <si>
-    <t>hot dishes;meat dishes;lunch;dinner;seafood</t>
+    <t>Hot dishes;Meat dishes;Lunch;Dinner;Seafood</t>
   </si>
   <si>
     <r>
@@ -4586,7 +4583,7 @@
     <t>1. Shred the cabbage, spray a little oil in the pan, fry the shredded cabbage until fragrant, sprinkle with black pepper to taste.;2. Beat two eggs, add salt and stir evenly, pour in the fried shredded cabbage and stir a few times.;3. Spray a little oil in the pan, spread the omelette round and flat, fry the whole process on low heat, turn the omelette over, and put cheese slices on it.;4. Cover the other side of the egg cake, cover the pot, turn off the heat and use the remaining temperature of the pot to simmer the cheese slices for about 1 minute.;5. Put on a plate, sprinkle black pepper on the surface to garnish.</t>
   </si>
   <si>
-    <t>hot dishes;breakfast;dinner;staple food;vegetable dishes</t>
+    <t>Hot dishes;Breakfast;Dinner;Staple food;Vegetable dishes</t>
   </si>
   <si>
     <r>
@@ -4613,7 +4610,7 @@
     <t>1. Rinse the pork belly first, add cornstarch, salt, cooking wine, or more, and scrub repeatedly.;2. Boil water, rinse and cut into small pieces.;3. In a frying pan, stir-fry the pork belly, and cook the soup on the other side over low heat. Add the fried pork belly and cook on high heat for 10 minutes.;4. Cook on medium and low heat for about an hour, add chicken, oil, salt and pepper to marinate. The pork belly soup is almost cooked, add the chicken and bring to a boil over high heat, then turn to low heat and cook for a few minutes.</t>
   </si>
   <si>
-    <t>hot dishes;lunch;dinner;meat dishes</t>
+    <t>Hot dishes;Lunch;Dinner;Meat dishes</t>
   </si>
   <si>
     <r>
@@ -4640,7 +4637,7 @@
     <t>1. After breaking the cake, soak it in clear water. Carrots, peppers, tomatoes and garlic diced rice. Shred the onions.;2. Stir fry garlic rice with hot oil in the pot. Add shredded carrots and stir fry. Add a little salt.;3. Pour in onion, shredded pepper, diced tomato and rice cake slices, stir fry. Add an appropriate amount of soy sauce.;4. Add half a bowl of water to the mixed tomato sauce and garlic chili sauce bowl and pour it into the pot. Add an appropriate amount of salt and monosodium glutamate.;5.Turn to low heat after boiling over high heat, cover the pot and stew for 15-20 minutes until the rice cake is cooked.</t>
   </si>
   <si>
-    <t>hot dishes;lunch;dinner;vegetable dishes</t>
+    <t>Hot dishes;Lunch;Dinner;Vegetable dishes</t>
   </si>
   <si>
     <r>
@@ -4667,7 +4664,7 @@
     <t>1. Stir cornflakes,oil and pour into the baking pan. Spread it out and put it into the oven. Heat it up and down at 150 ℃, and bake it for 10 minutes first.;2. Stir oatmeal, sugar,oil evenly. When it's time, take out the cornflakes, pour the mixed oatmeal into it, stir well, and then continue to bake in the oven for 15 minutes. During this period, take out and turn once.;3. Between baking cornflakes and oatmeal, deal with some dried fruits. After handling the dried fruit, we'll have some cranberries and raisins.;4. It's time to take out the baking pan. Pour all kinds of dried fruits while hot. Stir evenly, place aside until completely cool, turn over several times during the period, and separate the glued parts. Store in bottles after cooling.</t>
   </si>
   <si>
-    <t>baked food;breakfast;staple food</t>
+    <t>Baked food;Breakfast;Staple food</t>
   </si>
   <si>
     <r>
@@ -4859,7 +4856,7 @@
     <t>1. Slice the mushrooms and chop the onions with a food processor. Pour in butter. A small trick for peeling tomatoes, make a cross on the top of the head and then scald, you can easily peel the tomato skin.;2. After the butter is evenly heated in the pan, add the onion and stir until transparent, add in the diced tomato and stir fry to make the juice.;3. After tomato juice is collected, add sliced mushrooms and shredded ham. Finally, change to medium heat, dig three holes in the tomatoes, and simmer the eggs in.;4. Cover the pot to lock the aroma firmly.</t>
   </si>
   <si>
-    <t>breakfast</t>
+    <t>Breakfast</t>
   </si>
   <si>
     <r>
@@ -4886,7 +4883,7 @@
     <t>1. Boil the chicken in an underwater pot and steam it for 30 minutes (check that it is completely cooked and come out of the pot immediately). Put the soaked chicken in ice water, or tear the chicken by hand without pursuing crispy chicken;2. Stir in seasoning, pour ginger and garlic with hot oil, and then mix together to make it more fragrant.</t>
   </si>
   <si>
-    <t>cold dishes;meat dishes</t>
+    <t>Cold dishes;Meat dishes</t>
   </si>
   <si>
     <r>
@@ -4962,7 +4959,7 @@
     <t>1. Cut the chicken breast into large pieces, add minced garlic, salt, black pepper, olive oil, honey, lemon juice, mix well.;2. Mince the onion, chop the spices, preheat the pot over high heat, without adding additional oil, fry the chicken breast until golden brown on both sides, take it out and set aside.;3. Add the onion, fry it with the remaining oil until brown, add the fried chicken and spices, stir fry evenly and it will be out of the pan.</t>
   </si>
   <si>
-    <t>breakfast;hot dishes;meat dishes</t>
+    <t>Breakfast;Hot dishes;Meat dishes</t>
   </si>
   <si>
     <r>
@@ -6001,8 +5998,8 @@
   <sheetPr/>
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9065,13 +9062,13 @@
         <v>689</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G133" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" ht="162" spans="1:7">
@@ -9079,22 +9076,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>647</v>
       </c>
       <c r="F134" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" ht="94.5" spans="1:7">
@@ -9102,22 +9099,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>641</v>
       </c>
       <c r="F135" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" ht="94.5" spans="1:7">
@@ -9125,22 +9122,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="G136" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" ht="135" spans="1:7">
@@ -9148,22 +9145,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" ht="162" spans="1:7">
@@ -9171,22 +9168,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>524</v>
       </c>
       <c r="F138" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" ht="40.5" spans="1:7">
@@ -9194,22 +9191,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="E139" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F139" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F139" s="6" t="s">
+      <c r="G139" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" ht="67.5" spans="1:7">
@@ -9217,22 +9214,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="G140" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" ht="202.5" spans="1:7">
@@ -9240,22 +9237,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F141" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" ht="121.5" spans="1:7">
@@ -9263,22 +9260,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F142" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="94.5" spans="1:7">
@@ -9286,22 +9283,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="E143" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" ht="216" spans="1:7">
@@ -9309,22 +9306,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F144" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" ht="256.5" spans="1:7">
@@ -9332,22 +9329,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>751</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>641</v>
       </c>
       <c r="F145" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" ht="81" spans="1:7">
@@ -9355,22 +9352,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="F146" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="G146" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" ht="67.5" spans="1:7">
@@ -9378,22 +9375,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" ht="67.5" spans="1:7">
@@ -9401,22 +9398,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>767</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F148" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" ht="81" spans="1:7">
@@ -9424,22 +9421,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="E149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F149" s="6" t="s">
+      <c r="G149" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" ht="27" spans="1:7">
@@ -9447,22 +9444,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="E150" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F150" s="6" t="s">
+      <c r="G150" s="3" t="s">
         <v>778</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" ht="54" spans="1:7">
@@ -9470,22 +9467,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>782</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>668</v>
       </c>
       <c r="F151" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="152" ht="157" customHeight="1" spans="1:7">
@@ -9493,22 +9490,22 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>784</v>
+      </c>
+      <c r="C152" t="s">
         <v>785</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>787</v>
       </c>
       <c r="E152" t="s">
         <v>668</v>
       </c>
       <c r="F152" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="G152" t="s">
         <v>788</v>
-      </c>
-      <c r="G152" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="153" ht="310.5" spans="1:7">
@@ -9516,22 +9513,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>789</v>
+      </c>
+      <c r="C153" t="s">
         <v>790</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="E153" t="s">
+        <v>725</v>
+      </c>
+      <c r="F153" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E153" t="s">
-        <v>726</v>
-      </c>
-      <c r="F153" s="6" t="s">
+      <c r="G153" t="s">
         <v>793</v>
-      </c>
-      <c r="G153" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="154" ht="135" spans="1:7">
@@ -9539,22 +9536,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>794</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="E154" t="s">
         <v>797</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="G154" t="s">
         <v>799</v>
-      </c>
-      <c r="G154" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="155" ht="94.5" spans="1:7">
@@ -9562,22 +9559,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>800</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="E155" t="s">
         <v>803</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="G155" t="s">
         <v>805</v>
-      </c>
-      <c r="G155" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="156" ht="216" spans="1:7">
@@ -9585,22 +9582,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>806</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="E156" t="s">
         <v>809</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="G156" t="s">
         <v>811</v>
-      </c>
-      <c r="G156" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="157" ht="135" spans="1:7">
@@ -9608,22 +9605,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>812</v>
+      </c>
+      <c r="C157" t="s">
         <v>813</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" t="s">
         <v>815</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="G157" t="s">
         <v>817</v>
-      </c>
-      <c r="G157" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="158" ht="148.5" spans="1:7">
@@ -9631,22 +9628,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C158" t="s">
         <v>819</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" t="s">
+        <v>815</v>
+      </c>
+      <c r="F158" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="E158" t="s">
-        <v>816</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="G158" t="s">
         <v>822</v>
-      </c>
-      <c r="G158" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="159" ht="148.5" spans="1:7">
@@ -9654,22 +9651,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="C159" t="s">
         <v>824</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="E159" t="s">
+        <v>815</v>
+      </c>
+      <c r="F159" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="E159" t="s">
-        <v>816</v>
-      </c>
-      <c r="F159" s="6" t="s">
+      <c r="G159" t="s">
         <v>827</v>
-      </c>
-      <c r="G159" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="160" ht="54" spans="1:7">
@@ -9677,22 +9674,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>828</v>
+      </c>
+      <c r="C160" t="s">
         <v>829</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" t="s">
+        <v>756</v>
+      </c>
+      <c r="F160" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="E160" t="s">
-        <v>757</v>
-      </c>
-      <c r="F160" s="6" t="s">
+      <c r="G160" t="s">
         <v>832</v>
-      </c>
-      <c r="G160" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="161" ht="94.5" spans="1:7">
@@ -9700,22 +9697,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C161" t="s">
         <v>834</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="E161" t="s">
         <v>836</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="G161" t="s">
         <v>838</v>
-      </c>
-      <c r="G161" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="162" ht="148.5" spans="1:7">
@@ -9723,22 +9720,22 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>839</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="D162" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="E162" t="s">
         <v>842</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="F162" s="6" t="s">
+      <c r="G162" t="s">
         <v>844</v>
-      </c>
-      <c r="G162" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="163" ht="320" customHeight="1" spans="1:7">
@@ -9746,22 +9743,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>845</v>
+      </c>
+      <c r="C163" t="s">
         <v>846</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="E163" t="s">
+        <v>836</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="E163" t="s">
-        <v>837</v>
-      </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" t="s">
         <v>849</v>
-      </c>
-      <c r="G163" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="164" ht="135" spans="1:7">
@@ -9769,22 +9766,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C164" t="s">
+        <v>850</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="E164" t="s">
         <v>852</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="F164" s="6" t="s">
-        <v>854</v>
-      </c>
       <c r="G164" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="165" ht="175.5" spans="1:7">
@@ -9792,22 +9789,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>854</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="E165" t="s">
+        <v>725</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="E165" t="s">
-        <v>726</v>
-      </c>
-      <c r="F165" s="6" t="s">
+      <c r="G165" t="s">
         <v>858</v>
-      </c>
-      <c r="G165" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="166" ht="162" spans="1:7">
@@ -9815,22 +9812,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>859</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" t="s">
+        <v>809</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="E166" t="s">
-        <v>810</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" t="s">
         <v>863</v>
-      </c>
-      <c r="G166" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="167" ht="121.5" spans="1:7">
@@ -9838,22 +9835,22 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>864</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="E167" t="s">
         <v>867</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" t="s">
         <v>869</v>
-      </c>
-      <c r="G167" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="168" ht="94.5" spans="1:7">
@@ -9861,22 +9858,22 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>870</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="E168" t="s">
+        <v>809</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="E168" t="s">
-        <v>810</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" t="s">
         <v>874</v>
-      </c>
-      <c r="G168" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="169" ht="243" spans="1:7">
@@ -9884,22 +9881,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>875</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="E169" t="s">
         <v>878</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="G169" t="s">
         <v>880</v>
-      </c>
-      <c r="G169" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="170" ht="108" spans="1:7">
@@ -9907,22 +9904,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>881</v>
+      </c>
+      <c r="C170" t="s">
         <v>882</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="E170" t="s">
         <v>884</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="G170" t="s">
         <v>886</v>
-      </c>
-      <c r="G170" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="171" ht="94.5" spans="1:7">
@@ -9930,22 +9927,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>887</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" t="s">
+        <v>809</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="E171" t="s">
-        <v>810</v>
-      </c>
-      <c r="F171" s="6" t="s">
+      <c r="G171" t="s">
         <v>891</v>
-      </c>
-      <c r="G171" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="172" ht="135" spans="1:7">
@@ -9953,22 +9950,22 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>892</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="E172" t="s">
         <v>895</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="G172" t="s">
         <v>897</v>
-      </c>
-      <c r="G172" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="173" ht="81" spans="1:7">
@@ -9976,22 +9973,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>898</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="E173" t="s">
+        <v>809</v>
+      </c>
+      <c r="F173" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="E173" t="s">
-        <v>810</v>
-      </c>
-      <c r="F173" s="6" t="s">
+      <c r="G173" t="s">
         <v>902</v>
-      </c>
-      <c r="G173" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="174" ht="175.5" spans="1:7">
@@ -9999,22 +9996,22 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>903</v>
+      </c>
+      <c r="C174" t="s">
         <v>904</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>906</v>
       </c>
       <c r="E174" t="s">
         <v>668</v>
       </c>
       <c r="F174" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="G174" t="s">
         <v>907</v>
-      </c>
-      <c r="G174" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="175" ht="135" spans="1:7">
@@ -10022,22 +10019,22 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>908</v>
+      </c>
+      <c r="C175" t="s">
         <v>909</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="E175" t="s">
         <v>641</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="G175" t="s">
         <v>912</v>
-      </c>
-      <c r="G175" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="176" ht="135" spans="1:7">
@@ -10045,22 +10042,22 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>913</v>
+      </c>
+      <c r="C176" t="s">
         <v>914</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="E176" t="s">
         <v>916</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="G176" t="s">
         <v>918</v>
-      </c>
-      <c r="G176" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="177" ht="256.5" spans="1:7">
@@ -10068,22 +10065,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>919</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="E177" t="s">
+        <v>878</v>
+      </c>
+      <c r="F177" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="E177" t="s">
-        <v>879</v>
-      </c>
-      <c r="F177" s="6" t="s">
+      <c r="G177" t="s">
         <v>923</v>
-      </c>
-      <c r="G177" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="178" ht="67.5" spans="1:7">
@@ -10091,22 +10088,22 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>924</v>
+      </c>
+      <c r="C178" t="s">
         <v>925</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" t="s">
         <v>927</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="G178" t="s">
         <v>929</v>
-      </c>
-      <c r="G178" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="179" ht="67.5" spans="1:7">
@@ -10114,22 +10111,22 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>930</v>
+      </c>
+      <c r="C179" t="s">
         <v>931</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="E179" t="s">
         <v>933</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="G179" t="s">
         <v>935</v>
-      </c>
-      <c r="G179" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="180" ht="216" spans="1:7">
@@ -10137,22 +10134,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>936</v>
+      </c>
+      <c r="C180" t="s">
         <v>937</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="E180" t="s">
+        <v>803</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="E180" t="s">
-        <v>804</v>
-      </c>
-      <c r="F180" s="6" t="s">
+      <c r="G180" t="s">
         <v>940</v>
-      </c>
-      <c r="G180" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="181" ht="135" spans="1:7">
@@ -10160,22 +10157,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>941</v>
+      </c>
+      <c r="C181" t="s">
         <v>942</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>944</v>
       </c>
       <c r="E181" t="s">
         <v>641</v>
       </c>
       <c r="F181" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="G181" t="s">
         <v>945</v>
-      </c>
-      <c r="G181" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="182" ht="67.5" spans="1:7">
@@ -10183,22 +10180,22 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>946</v>
+      </c>
+      <c r="C182" t="s">
         <v>947</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="E182" t="s">
+        <v>927</v>
+      </c>
+      <c r="F182" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="E182" t="s">
-        <v>928</v>
-      </c>
-      <c r="F182" s="6" t="s">
+      <c r="G182" t="s">
         <v>950</v>
-      </c>
-      <c r="G182" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="183" ht="81" spans="1:7">
@@ -10206,22 +10203,22 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>951</v>
+      </c>
+      <c r="C183" t="s">
         <v>952</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="E183" t="s">
+        <v>66</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="E183" t="s">
-        <v>690</v>
-      </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" t="s">
         <v>955</v>
-      </c>
-      <c r="G183" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="184" ht="54" spans="1:7">
@@ -10229,22 +10226,22 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>956</v>
+      </c>
+      <c r="C184" t="s">
         <v>957</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="E184" t="s">
         <v>959</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="G184" t="s">
         <v>961</v>
-      </c>
-      <c r="G184" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="185" ht="162" spans="1:7">
@@ -10252,22 +10249,22 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>962</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="E185" t="s">
         <v>965</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="G185" t="s">
         <v>967</v>
-      </c>
-      <c r="G185" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="186" ht="162" spans="1:7">
@@ -10275,22 +10272,22 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>968</v>
+      </c>
+      <c r="C186" t="s">
         <v>969</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" t="s">
         <v>971</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="G186" t="s">
         <v>973</v>
-      </c>
-      <c r="G186" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="187" ht="148.5" spans="1:7">
@@ -10298,22 +10295,22 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>974</v>
+      </c>
+      <c r="C187" t="s">
         <v>975</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="E187" t="s">
         <v>977</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="G187" t="s">
         <v>979</v>
-      </c>
-      <c r="G187" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="188" ht="162" spans="1:7">
@@ -10321,22 +10318,22 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>980</v>
+      </c>
+      <c r="C188" t="s">
         <v>981</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" t="s">
         <v>983</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="G188" t="s">
         <v>985</v>
-      </c>
-      <c r="G188" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="189" ht="202.5" spans="1:7">
@@ -10344,22 +10341,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>986</v>
+      </c>
+      <c r="C189" t="s">
         <v>987</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="E189" t="s">
         <v>989</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="G189" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="G189" s="10" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="190" ht="162" spans="1:7">
@@ -10367,22 +10364,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="E190" t="s">
+        <v>809</v>
+      </c>
+      <c r="F190" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="E190" t="s">
-        <v>810</v>
-      </c>
-      <c r="F190" s="6" t="s">
+      <c r="G190" t="s">
         <v>996</v>
-      </c>
-      <c r="G190" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="191" ht="256.5" spans="1:7">
@@ -10390,22 +10387,22 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>997</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" t="s">
+        <v>965</v>
+      </c>
+      <c r="F191" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="E191" t="s">
-        <v>966</v>
-      </c>
-      <c r="F191" s="6" t="s">
+      <c r="G191" t="s">
         <v>1001</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="192" ht="162" spans="1:7">
@@ -10413,22 +10410,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" t="s">
+        <v>867</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="E192" t="s">
-        <v>868</v>
-      </c>
-      <c r="F192" s="6" t="s">
+      <c r="G192" t="s">
         <v>1006</v>
-      </c>
-      <c r="G192" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="193" ht="81" spans="1:7">
@@ -10436,22 +10433,22 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C193" t="s">
         <v>1008</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="E193" t="s">
+        <v>66</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="E193" t="s">
-        <v>690</v>
-      </c>
-      <c r="F193" s="6" t="s">
+      <c r="G193" t="s">
         <v>1011</v>
-      </c>
-      <c r="G193" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="194" ht="135" spans="1:7">
@@ -10459,22 +10456,22 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" t="s">
+        <v>867</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="E194" t="s">
-        <v>868</v>
-      </c>
-      <c r="F194" s="6" t="s">
+      <c r="G194" t="s">
         <v>1016</v>
-      </c>
-      <c r="G194" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="195" ht="81" spans="1:7">
@@ -10482,19 +10479,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C195" t="s">
         <v>1018</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="E195" t="s">
+        <v>983</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>1020</v>
-      </c>
-      <c r="E195" t="s">
-        <v>984</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>1021</v>
       </c>
       <c r="G195" t="s">
         <v>84</v>
@@ -10505,22 +10502,22 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C196" t="s">
         <v>1022</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="E196" t="s">
+        <v>977</v>
+      </c>
+      <c r="F196" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="E196" t="s">
-        <v>978</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="G196" t="s">
         <v>1025</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="197" ht="148.5" spans="1:7">
@@ -10528,22 +10525,22 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="E197" t="s">
         <v>1029</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="G197" t="s">
         <v>1031</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="198" ht="94.5" spans="1:7">
@@ -10551,22 +10548,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="E198" t="s">
         <v>1035</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="G198" t="s">
         <v>1037</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="199" ht="162" spans="1:7">
@@ -10574,22 +10571,22 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="E199" t="s">
+        <v>983</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="E199" t="s">
-        <v>984</v>
-      </c>
-      <c r="F199" s="6" t="s">
+      <c r="G199" t="s">
         <v>1042</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="200" ht="256.5" spans="1:7">
@@ -10597,22 +10594,22 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C200" t="s">
         <v>1044</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200" t="s">
+        <v>927</v>
+      </c>
+      <c r="F200" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="E200" t="s">
-        <v>928</v>
-      </c>
-      <c r="F200" s="6" t="s">
+      <c r="G200" t="s">
         <v>1047</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="201" ht="121.5" spans="1:7">
@@ -10620,22 +10617,22 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" t="s">
         <v>1051</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="G201" t="s">
         <v>1053</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1054</v>
       </c>
     </row>
   </sheetData>
